--- a/Pergunta3.xlsx
+++ b/Pergunta3.xlsx
@@ -26,19 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TimeSerie</t>
+    <t>Amount</t>
   </si>
   <si>
-    <t>TimeParallel</t>
+    <t>Time Serie</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>Time Parallel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -56,7 +59,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -64,17 +67,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.000"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -177,7 +272,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TimeSerie</c:v>
+                  <c:v>Time Serie</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -263,10 +358,10 @@
             <c:numRef>
               <c:f>Folha1!$B$3:$B$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.8125640000000001</c:v>
+                  <c:v>1.7522139999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.813795</c:v>
@@ -309,7 +404,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TimeParallel</c:v>
+                  <c:v>Time Parallel</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -395,10 +490,10 @@
             <c:numRef>
               <c:f>Folha1!$C$3:$C$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1.1634899999999999</c:v>
+                  <c:v>1.3786160000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.189354</c:v>
@@ -440,11 +535,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="340249776"/>
-        <c:axId val="8804360"/>
+        <c:axId val="176543696"/>
+        <c:axId val="176546440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="340249776"/>
+        <c:axId val="176543696"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -472,8 +567,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -496,15 +592,17 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8804360"/>
+        <c:crossAx val="176546440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8804360"/>
+        <c:axId val="176546440"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -523,7 +621,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -558,9 +656,11 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="340249776"/>
+        <c:crossAx val="176543696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="10"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1254,6 +1354,18 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:C12" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:C12"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Amount" dataDxfId="3"/>
+    <tableColumn id="2" name="Time Serie" dataDxfId="2"/>
+    <tableColumn id="3" name="Time Parallel" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -1520,138 +1632,143 @@
   <dimension ref="A2:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.8125640000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.1634899999999999</v>
+      <c r="B3" s="2">
+        <v>1.7522139999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.3786160000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1.813795</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.189354</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>100</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>1.861829</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1.274748</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>2.2974190000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1.57691</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>10000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>6.3712759999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>4.2224740000000001</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>100000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>23.362164</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>10.264491</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1000000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>40.938493999999999</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>19.952162999999999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>10000000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>108.995655</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>81.383920000000003</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>20000000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>169.05536499999999</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>141.837345</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>25000000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>207.72764000000001</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>184.36136999999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>